--- a/SASIMI-VECBEE/result/compare-SASIMI/more-arith/more-arith.xlsx
+++ b/SASIMI-VECBEE/result/compare-SASIMI/more-arith/more-arith.xlsx
@@ -105,14 +105,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,14 +132,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,18 +155,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,14 +193,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,30 +247,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,29 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,15 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,31 +489,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,16 +530,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,142 +572,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -717,17 +717,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1066,7 +1069,7 @@
     <col min="1" max="1" width="6.8" customWidth="true"/>
     <col min="2" max="2" width="6.9" customWidth="true"/>
     <col min="3" max="3" width="5.3" customWidth="true"/>
-    <col min="4" max="4" width="5.8" customWidth="true"/>
+    <col min="4" max="4" width="11.7" customWidth="true"/>
     <col min="5" max="5" width="8.8" customWidth="true"/>
     <col min="6" max="6" width="6.8" customWidth="true"/>
     <col min="7" max="7" width="7" customWidth="true"/>
@@ -1133,22 +1136,24 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1372</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.000501399470756619</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0.87840375584139</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G11" si="0">C3*F3</f>
         <v>1205.16995301439</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2">
+      <c r="H3" s="5"/>
+      <c r="I3" s="3">
         <v>0.00495449</v>
       </c>
       <c r="J3">
@@ -1157,7 +1162,7 @@
       <c r="K3">
         <v>36.5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <f>J3/C3</f>
         <v>0.638483965014577</v>
       </c>
@@ -1169,22 +1174,24 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1372</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.00160169275380587</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.786384976502987</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>1078.9201877621</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2">
+      <c r="H4" s="5"/>
+      <c r="I4" s="3">
         <v>0.00157</v>
       </c>
       <c r="J4">
@@ -1193,7 +1200,7 @@
       <c r="K4">
         <v>36.1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <f t="shared" ref="L3:L7" si="1">J4/C4</f>
         <v>0.485422740524781</v>
       </c>
@@ -1205,25 +1212,27 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1372</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.00250699735378309</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0.715727699510999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>981.978403729091</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f>AVERAGE(F3:F5)</f>
         <v>0.793505477285125</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>0.0024</v>
       </c>
       <c r="J5">
@@ -1232,11 +1241,11 @@
       <c r="K5">
         <v>32</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>0.37463556851312</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <f>AVERAGE(L3:L5)</f>
         <v>0.499514091350826</v>
       </c>
@@ -1245,7 +1254,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6">
@@ -1254,18 +1263,18 @@
       <c r="D6">
         <v>87.3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>0.00150419841226986</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0.967136150203421</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>2641.24882620554</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2">
+      <c r="H6" s="6"/>
+      <c r="I6" s="3">
         <v>0.00146589</v>
       </c>
       <c r="J6">
@@ -1274,7 +1283,7 @@
       <c r="K6">
         <v>53.8</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>0.861955327718784</v>
       </c>
@@ -1283,7 +1292,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7">
@@ -1292,21 +1301,21 @@
       <c r="D7">
         <v>87.3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.00502792247064276</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0.769953051621129</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>2102.7417839773</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f>AVERAGE(F6:F7)</f>
         <v>0.868544600912275</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>0.00494557</v>
       </c>
       <c r="J7">
@@ -1315,11 +1324,11 @@
       <c r="K7">
         <v>53.8</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>0.708897839619187</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <f>AVERAGE(L6,L7)</f>
         <v>0.785426583668986</v>
       </c>
@@ -1331,22 +1340,24 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>999</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>70.9</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.00201952564610305</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0.746948356786528</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>746.201408429741</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3">
         <v>0.0019719</v>
       </c>
       <c r="J8">
@@ -1355,7 +1366,7 @@
       <c r="K8">
         <v>35.1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <f t="shared" ref="L8:L11" si="2">J8/C8</f>
         <v>0.554554554554555</v>
       </c>
@@ -1367,22 +1378,24 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>999</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>70.9</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.00402512352912952</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.697652582140955</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>696.954929558814</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2">
+      <c r="H9" s="5"/>
+      <c r="I9" s="3">
         <v>0.00354246</v>
       </c>
       <c r="J9">
@@ -1391,7 +1404,7 @@
       <c r="K9">
         <v>32.2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <f t="shared" si="2"/>
         <v>0.482482482482482</v>
       </c>
@@ -1403,22 +1416,24 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>999</v>
       </c>
-      <c r="D10"/>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <v>70.9</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.00502792247064276</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.628638497637153</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>628.009859139516</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2">
+      <c r="H10" s="5"/>
+      <c r="I10" s="3">
         <v>0.00497472</v>
       </c>
       <c r="J10">
@@ -1427,7 +1442,7 @@
       <c r="K10">
         <v>30.1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <f t="shared" si="2"/>
         <v>0.433433433433433</v>
       </c>
@@ -1439,25 +1454,27 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>999</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>70.9</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.00604464917523257</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0.554694835668794</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>554.140140833125</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f>AVERAGE(F8:F11)</f>
         <v>0.656983568058358</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>0.00587507</v>
       </c>
       <c r="J11">
@@ -1466,11 +1483,11 @@
       <c r="K11">
         <v>30.1</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <f t="shared" si="2"/>
         <v>0.421421421421421</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <f>AVERAGE(L8:L11)</f>
         <v>0.472972972972973</v>
       </c>
